--- a/data/financial_statements/sofp/TPR.xlsx
+++ b/data/financial_statements/sofp/TPR.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,144 +601,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>557100000</v>
+        <v>557000000</v>
       </c>
       <c r="C2">
-        <v>953200000</v>
+        <v>953000000</v>
       </c>
       <c r="D2">
         <v>1073000000</v>
       </c>
       <c r="E2">
-        <v>1647700000</v>
+        <v>1648000000</v>
       </c>
       <c r="F2">
-        <v>1655200000</v>
+        <v>1655000000</v>
       </c>
       <c r="G2">
         <v>2015800000</v>
@@ -733,23 +844,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>497200000</v>
+        <v>497000000</v>
       </c>
       <c r="C3">
-        <v>469500000</v>
+        <v>470000000</v>
       </c>
       <c r="D3">
-        <v>416900000</v>
+        <v>417000000</v>
       </c>
       <c r="E3">
-        <v>474200000</v>
+        <v>474000000</v>
       </c>
       <c r="F3">
-        <v>430500000</v>
+        <v>431000000</v>
       </c>
       <c r="G3">
         <v>454800000</v>
@@ -855,14 +966,14 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1139800000</v>
+        <v>1140000000</v>
       </c>
       <c r="C4">
-        <v>994200000</v>
+        <v>994000000</v>
       </c>
       <c r="D4">
         <v>913000000</v>
@@ -871,7 +982,7 @@
         <v>750000000</v>
       </c>
       <c r="F4">
-        <v>818300000</v>
+        <v>818000000</v>
       </c>
       <c r="G4">
         <v>734800000</v>
@@ -977,23 +1088,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>48600000</v>
+        <v>193000000</v>
       </c>
       <c r="C5">
-        <v>51700000</v>
+        <v>157000000</v>
       </c>
       <c r="D5">
-        <v>59700000</v>
+        <v>156000000</v>
       </c>
       <c r="E5">
-        <v>82400000</v>
+        <v>187000000</v>
       </c>
       <c r="F5">
-        <v>78900000</v>
+        <v>182000000</v>
       </c>
       <c r="G5">
         <v>76100000</v>
@@ -1084,23 +1195,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2387400000</v>
+        <v>2387000000</v>
       </c>
       <c r="C6">
-        <v>2573800000</v>
+        <v>2574000000</v>
       </c>
       <c r="D6">
-        <v>2558600000</v>
+        <v>2559000000</v>
       </c>
       <c r="E6">
-        <v>3058500000</v>
+        <v>3059000000</v>
       </c>
       <c r="F6">
-        <v>3086200000</v>
+        <v>3086000000</v>
       </c>
       <c r="G6">
         <v>3375300000</v>
@@ -1206,23 +1317,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>526300000</v>
+        <v>1808000000</v>
       </c>
       <c r="C7">
-        <v>544400000</v>
+        <v>1826000000</v>
       </c>
       <c r="D7">
-        <v>576600000</v>
+        <v>1936000000</v>
       </c>
       <c r="E7">
-        <v>647700000</v>
+        <v>2051000000</v>
       </c>
       <c r="F7">
-        <v>657100000</v>
+        <v>2103000000</v>
       </c>
       <c r="G7">
         <v>678100000</v>
@@ -1328,8 +1439,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1408,23 +1519,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2586200000</v>
+        <v>2586000000</v>
       </c>
       <c r="C9">
-        <v>2608100000</v>
+        <v>2608000000</v>
       </c>
       <c r="D9">
-        <v>2636700000</v>
+        <v>2637000000</v>
       </c>
       <c r="E9">
-        <v>2655300000</v>
+        <v>2655000000</v>
       </c>
       <c r="F9">
-        <v>2666600000</v>
+        <v>2667000000</v>
       </c>
       <c r="G9">
         <v>2670700000</v>
@@ -1530,8 +1641,8 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
         <v>45100000</v>
@@ -1616,23 +1727,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
-        <v>253400000</v>
+        <v>253000000</v>
       </c>
       <c r="C11">
-        <v>209500000</v>
+        <v>210000000</v>
       </c>
       <c r="D11">
-        <v>206600000</v>
+        <v>207000000</v>
       </c>
       <c r="E11">
-        <v>164300000</v>
+        <v>164000000</v>
       </c>
       <c r="F11">
-        <v>158200000</v>
+        <v>158000000</v>
       </c>
       <c r="G11">
         <v>96100000</v>
@@ -1738,8 +1849,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>4692600000</v>
@@ -1860,23 +1971,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>7080000000</v>
       </c>
       <c r="C13">
-        <v>7265300000</v>
+        <v>7265000000</v>
       </c>
       <c r="D13">
-        <v>7338200000</v>
+        <v>7338000000</v>
       </c>
       <c r="E13">
-        <v>7929400000</v>
+        <v>7929000000</v>
       </c>
       <c r="F13">
-        <v>8014100000</v>
+        <v>8014000000</v>
       </c>
       <c r="G13">
         <v>8382400000</v>
@@ -1982,20 +2093,20 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>510900000</v>
+        <v>511000000</v>
       </c>
       <c r="C14">
-        <v>520700000</v>
+        <v>521000000</v>
       </c>
       <c r="D14">
-        <v>478900000</v>
+        <v>479000000</v>
       </c>
       <c r="E14">
-        <v>468200000</v>
+        <v>468000000</v>
       </c>
       <c r="F14">
         <v>414000000</v>
@@ -2104,8 +2215,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>489800000</v>
@@ -2226,23 +2337,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>25000000</v>
+        <v>309000000</v>
       </c>
       <c r="C16">
-        <v>31200000</v>
+        <v>321000000</v>
       </c>
       <c r="D16">
-        <v>400000000</v>
+        <v>708000000</v>
       </c>
       <c r="E16">
-        <v>400000000</v>
+        <v>709000000</v>
       </c>
       <c r="F16">
-        <v>400000000</v>
+        <v>714000000</v>
       </c>
       <c r="G16">
         <v>320000000</v>
@@ -2333,8 +2444,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D17">
         <v>11100000</v>
@@ -2365,8 +2476,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>489000000</v>
@@ -2409,23 +2520,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1308400000</v>
+        <v>1308000000</v>
       </c>
       <c r="C19">
-        <v>1468800000</v>
+        <v>1469000000</v>
       </c>
       <c r="D19">
-        <v>1733300000</v>
+        <v>1733000000</v>
       </c>
       <c r="E19">
-        <v>1843700000</v>
+        <v>1844000000</v>
       </c>
       <c r="F19">
-        <v>1646600000</v>
+        <v>1647000000</v>
       </c>
       <c r="G19">
         <v>1425800000</v>
@@ -2531,23 +2642,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1653400000</v>
+        <v>2929000000</v>
       </c>
       <c r="C20">
-        <v>1659200000</v>
+        <v>2944000000</v>
       </c>
       <c r="D20">
-        <v>1189800000</v>
+        <v>2549000000</v>
       </c>
       <c r="E20">
-        <v>1189100000</v>
+        <v>2607000000</v>
       </c>
       <c r="F20">
-        <v>1191400000</v>
+        <v>2666000000</v>
       </c>
       <c r="G20">
         <v>1590700000</v>
@@ -2638,8 +2749,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C21">
         <v>46000000</v>
@@ -2652,20 +2763,20 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>207700000</v>
+        <v>163000000</v>
       </c>
       <c r="C22">
-        <v>221700000</v>
+        <v>270000000</v>
       </c>
       <c r="D22">
-        <v>198700000</v>
+        <v>199000000</v>
       </c>
       <c r="E22">
-        <v>206800000</v>
+        <v>207000000</v>
       </c>
       <c r="F22">
         <v>191000000</v>
@@ -2720,23 +2831,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>381800000</v>
+        <v>380000000</v>
       </c>
       <c r="C23">
-        <v>347800000</v>
+        <v>204000000</v>
       </c>
       <c r="D23">
-        <v>325200000</v>
+        <v>323000000</v>
       </c>
       <c r="E23">
-        <v>347600000</v>
+        <v>345000000</v>
       </c>
       <c r="F23">
-        <v>364000000</v>
+        <v>361000000</v>
       </c>
       <c r="G23">
         <v>376800000</v>
@@ -2842,8 +2953,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>3516200000</v>
@@ -2964,23 +3075,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>4824600000</v>
+        <v>4825000000</v>
       </c>
       <c r="C25">
-        <v>4979800000</v>
+        <v>4980000000</v>
       </c>
       <c r="D25">
-        <v>4803200000</v>
+        <v>4803000000</v>
       </c>
       <c r="E25">
         <v>5002000000</v>
       </c>
       <c r="F25">
-        <v>4864100000</v>
+        <v>4864000000</v>
       </c>
       <c r="G25">
         <v>5123100000</v>
@@ -3086,8 +3197,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>3589500000</v>
@@ -3208,23 +3319,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>2400000</v>
+        <v>2000000</v>
       </c>
       <c r="C27">
-        <v>2400000</v>
+        <v>2000000</v>
       </c>
       <c r="D27">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="E27">
-        <v>2600000</v>
+        <v>3000000</v>
       </c>
       <c r="F27">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="G27">
         <v>2800000</v>
@@ -3330,23 +3441,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>-1143600000</v>
+        <v>-1144000000</v>
       </c>
       <c r="C28">
-        <v>-1166200000</v>
+        <v>-1166000000</v>
       </c>
       <c r="D28">
-        <v>-943300000</v>
+        <v>-943000000</v>
       </c>
       <c r="E28">
         <v>-501000000</v>
       </c>
       <c r="F28">
-        <v>-251200000</v>
+        <v>-251000000</v>
       </c>
       <c r="G28">
         <v>-158500000</v>
@@ -3452,20 +3563,20 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>2255400000</v>
+        <v>2255000000</v>
       </c>
       <c r="C29">
-        <v>2285500000</v>
+        <v>2286000000</v>
       </c>
       <c r="D29">
         <v>2535000000</v>
       </c>
       <c r="E29">
-        <v>2927400000</v>
+        <v>2927000000</v>
       </c>
       <c r="F29">
         <v>3150000000</v>
@@ -3574,20 +3685,20 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>2255400000</v>
+        <v>2255000000</v>
       </c>
       <c r="C30">
-        <v>2285500000</v>
+        <v>2286000000</v>
       </c>
       <c r="D30">
         <v>2535000000</v>
       </c>
       <c r="E30">
-        <v>2927400000</v>
+        <v>2927000000</v>
       </c>
       <c r="F30">
         <v>3150000000</v>
@@ -3696,8 +3807,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>7080000000</v>
@@ -3818,8 +3929,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>240900000</v>
@@ -3940,8 +4051,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-330800300</v>
@@ -4062,23 +4173,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>1121300000</v>
+        <v>2681000000</v>
       </c>
       <c r="C34">
-        <v>737200000</v>
+        <v>2312000000</v>
       </c>
       <c r="D34">
-        <v>516800000</v>
+        <v>2184000000</v>
       </c>
       <c r="E34">
-        <v>-58600000</v>
+        <v>1668000000</v>
       </c>
       <c r="F34">
-        <v>-63800000</v>
+        <v>1725000000</v>
       </c>
       <c r="G34">
         <v>-105100000</v>
@@ -4184,23 +4295,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>1678400000</v>
+        <v>3238000000</v>
       </c>
       <c r="C35">
-        <v>1690400000</v>
+        <v>3265000000</v>
       </c>
       <c r="D35">
-        <v>1589800000</v>
+        <v>3257000000</v>
       </c>
       <c r="E35">
-        <v>1589100000</v>
+        <v>3316000000</v>
       </c>
       <c r="F35">
-        <v>1591400000</v>
+        <v>3380000000</v>
       </c>
       <c r="G35">
         <v>1910700000</v>
